--- a/2021/day7/day7part1.xlsx
+++ b/2021/day7/day7part1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sam\projects\adventofcode\2021\day7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4E838-8314-4ACB-9249-5253B4BCE47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674917F-7D5E-44C3-A1C2-B488CAB82386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30435" yWindow="9420" windowWidth="20235" windowHeight="12180" xr2:uid="{977C4C23-36E2-416E-B07A-18B2D21A067F}"/>
   </bookViews>
   <sheets>
-    <sheet name="AoC71 (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="AoCDay7Part1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'AoC71 (3)'!$A$1:$A$1001</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">AoCDay7Part1!$A$1:$A$1001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
